--- a/docs/StructureDefinition-VADrugIngredient.xlsx
+++ b/docs/StructureDefinition-VADrugIngredient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="274">
   <si>
     <t>Path</t>
   </si>
@@ -602,22 +602,28 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Substance|Medication)</t>
-  </si>
-  <si>
     <t>The product contained</t>
   </si>
   <si>
     <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
     <t>Medication.ingredient.item[x].id</t>
   </si>
   <si>
@@ -625,6 +631,64 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>PRINT NAME</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>This field should contain the print name of the solution.  The name that is entered here will be printed on the IV label, manufacturing list, ward list, etc.  The volume should NOT be part of the print name, since the volume of the IV ORDER will be printed next to the print name.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>IV SOLUTION @PRINT NAME 52.7-.01</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -965,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3429,13 +3493,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3474,16 +3538,14 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>182</v>
@@ -3507,26 +3569,28 @@
         <v>123</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -3541,13 +3605,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3598,10 +3662,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>51</v>
@@ -3616,32 +3680,32 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3653,17 +3717,15 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3700,22 +3762,26 @@
         <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3744,14 +3810,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -3763,18 +3829,18 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3810,25 +3876,25 @@
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -3843,7 +3909,7 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -3854,7 +3920,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3865,7 +3931,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -3874,19 +3940,23 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3934,13 +4004,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -3952,7 +4022,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>200</v>
@@ -3964,7 +4034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>202</v>
       </c>
@@ -3972,7 +4042,9 @@
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
@@ -3980,25 +4052,29 @@
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4046,7 +4122,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4058,27 +4134,27 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4101,16 +4177,18 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4158,7 +4236,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4179,7 +4257,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4190,18 +4268,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4213,17 +4291,15 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4272,13 +4348,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4290,54 +4366,52 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4386,28 +4460,28 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4418,7 +4492,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4441,13 +4515,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4474,13 +4548,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4498,7 +4572,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4516,10 +4590,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4530,11 +4604,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4553,15 +4627,17 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4610,7 +4686,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4622,16 +4698,16 @@
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4642,38 +4718,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4722,13 +4800,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -4743,7 +4821,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -4754,18 +4832,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -4777,17 +4855,15 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4812,13 +4888,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4836,13 +4912,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -4854,10 +4930,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -4868,11 +4944,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4885,23 +4961,21 @@
         <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -4950,7 +5024,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -4962,16 +5036,16 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -4982,7 +5056,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4990,7 +5064,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5005,13 +5079,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5062,10 +5136,10 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>51</v>
@@ -5080,10 +5154,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5094,18 +5168,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5117,15 +5191,17 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5174,13 +5250,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5192,10 +5268,10 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5206,11 +5282,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5223,21 +5299,23 @@
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5286,7 +5364,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5298,16 +5376,16 @@
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5318,7 +5396,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5326,7 +5404,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5341,13 +5419,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5398,10 +5476,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>51</v>
@@ -5416,10 +5494,10 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5430,18 +5508,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5453,17 +5531,15 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5512,13 +5588,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -5530,10 +5606,10 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5544,11 +5620,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5561,23 +5637,21 @@
         <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5626,7 +5700,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5638,16 +5712,16 @@
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -5658,7 +5732,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5684,10 +5758,10 @@
         <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5738,7 +5812,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5756,32 +5830,32 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -5793,15 +5867,17 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5850,13 +5926,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -5868,25 +5944,25 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5899,24 +5975,24 @@
         <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -5964,7 +6040,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -5985,17 +6061,355 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN44">
+  <autoFilter ref="A1:AN47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6005,7 +6419,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
